--- a/src/test/resources/elModule.xlsx
+++ b/src/test/resources/elModule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>有效营销客户人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,6 +245,50 @@
   </si>
   <si>
     <t>${img3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回购客户数据评估记录（自短信下发时间起，以自然日计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回购营销客户人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回购营销客户订单数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户营销客户金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${repeatListForPlan[?].statDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${repeatListForPlan[?].repeatMemberCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${repeatListForPlan[?].payedMemberCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${repeatListForPlan[?].repeatOrderCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${repeatListForPlan[?].payedOrderCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${repeatListForPlan[?].repeatSalesAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${repeatListForPlan[?].payedSalesAmount}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,17 +418,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -395,8 +439,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -702,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:O1"/>
@@ -715,40 +759,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -766,112 +810,112 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="5"/>
+      <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -893,424 +937,493 @@
       <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2" t="s">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3" t="s">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2" t="s">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3" t="s">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
     </row>
     <row r="20" spans="1:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2" t="s">
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2" t="s">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2" t="s">
+      <c r="K23" s="4"/>
+      <c r="L23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2" t="s">
+      <c r="M23" s="4"/>
+      <c r="N23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O23" s="2"/>
+      <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3" t="s">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3" t="s">
+      <c r="I24" s="2"/>
+      <c r="J24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3" t="s">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3" t="s">
+      <c r="M24" s="2"/>
+      <c r="N24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O24" s="3"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O29" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="A12:O12"/>
-    <mergeCell ref="A16:O16"/>
-    <mergeCell ref="A20:O20"/>
-    <mergeCell ref="A21:O21"/>
-    <mergeCell ref="A22:C23"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="A19:O19"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A8:O8"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A9:O9"/>
-    <mergeCell ref="K7:L7"/>
+  <mergeCells count="91">
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A26:O26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="M5:O6"/>
@@ -1327,10 +1440,63 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E5:H5"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="A19:O19"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A12:O12"/>
+    <mergeCell ref="A16:O16"/>
+    <mergeCell ref="A20:O20"/>
+    <mergeCell ref="A21:O21"/>
+    <mergeCell ref="A22:C23"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/elModule.xlsx
+++ b/src/test/resources/elModule.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2772" windowWidth="14580" windowHeight="7092"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="14580" windowHeight="7095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
   <si>
     <t>有效营销客户人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,14 +289,42 @@
   </si>
   <si>
     <t>${repeatListForPlan[?].payedSalesAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{repeatListForPlan[?].repeatMemberCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{repeatListForPlan[?].payedMemberCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{repeatListForPlan[?].repeatOrderCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{repeatListForPlan[?].payedOrderCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{repeatListForPlan[?].repeatSalesAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{repeatListForPlan[?].payedSalesAmount}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,14 +449,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -439,11 +470,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,7 +488,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -534,7 +562,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -569,7 +596,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -745,148 +771,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="15" width="9.77734375" style="1" customWidth="1"/>
+    <col min="1" max="15" width="9.75" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:15" ht="30" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" ht="8.1" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" ht="18" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="18" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" ht="14.1" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -917,43 +943,43 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:15" ht="35.1" customHeight="1">
+      <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" ht="8.1" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -976,7 +1002,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="274.5" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -999,70 +1025,70 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="12" spans="1:15" ht="8.1" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" ht="18" customHeight="1">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="18" customHeight="1">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4" t="s">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4" t="s">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="14.1" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -1089,51 +1115,51 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="16" spans="1:15" ht="8.1" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" ht="18" customHeight="1">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4" t="s">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4" t="s">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="14.1" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -1160,116 +1186,116 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:15" ht="8.1" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" ht="18" customHeight="1">
+      <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" ht="18" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4" t="s">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" ht="18" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4" t="s">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4" t="s">
+      <c r="K23" s="3"/>
+      <c r="L23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4" t="s">
+      <c r="M23" s="3"/>
+      <c r="N23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O23" s="4"/>
-    </row>
-    <row r="24" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" ht="14.1" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>42</v>
       </c>
@@ -1300,80 +1326,80 @@
       </c>
       <c r="O24" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:15">
+      <c r="A26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4" t="s">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4" t="s">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4" t="s">
+      <c r="K28" s="3"/>
+      <c r="L28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4" t="s">
+      <c r="M28" s="3"/>
+      <c r="N28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O28" s="4"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
         <v>62</v>
       </c>
@@ -1404,26 +1430,103 @@
       </c>
       <c r="O29" s="2"/>
     </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O30" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A26:O26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
+  <mergeCells count="98">
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="A16:O16"/>
+    <mergeCell ref="A20:O20"/>
+    <mergeCell ref="A21:O21"/>
+    <mergeCell ref="A22:C23"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="A19:O19"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A12:O12"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="M5:O6"/>
@@ -1440,63 +1543,24 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E5:H5"/>
-    <mergeCell ref="A8:O8"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A9:O9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="A19:O19"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A12:O12"/>
-    <mergeCell ref="A16:O16"/>
-    <mergeCell ref="A20:O20"/>
-    <mergeCell ref="A21:O21"/>
-    <mergeCell ref="A22:C23"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="A26:O26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
